--- a/DB/3박자_공통코드.xlsx
+++ b/DB/3박자_공통코드.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\05_강좌\201901_캡스톤디자인\공통코드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Capstone-Design\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F8D2A4-F23A-4B1E-A2C5-6C6E68E1BA99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-9012" yWindow="6264" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>대코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,12 +302,36 @@
   </si>
   <si>
     <t>005004</t>
+  </si>
+  <si>
+    <t>신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOIN_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -838,6 +857,63 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,15 +929,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,54 +957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,34 +1272,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="19" t="s">
         <v>0</v>
@@ -1299,12 +1318,12 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="58" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1313,30 +1332,30 @@
       <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="54" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1345,82 +1364,82 @@
       <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="49" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="24" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1429,30 +1448,30 @@
       <c r="E12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1461,43 +1480,43 @@
       <c r="E14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="27" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="51"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="48" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -1506,55 +1525,55 @@
       <c r="E17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="51"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B21" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -1563,26 +1582,26 @@
       <c r="E21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="29"/>
-      <c r="C22" s="32"/>
+    <row r="22" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="48"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="37"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -1591,98 +1610,121 @@
       <c r="E23" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="31"/>
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B24" s="47"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="31"/>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B25" s="47"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B26" s="47"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="29"/>
-      <c r="C27" s="32"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="48"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B28" s="46">
+        <v>8</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="48"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="53"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32"/>
       <c r="D32"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="F17:F20"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
